--- a/deployment/Omaha_Cal_Info_RS01SUM1.xlsx
+++ b/deployment/Omaha_Cal_Info_RS01SUM1.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Moorings" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Asset_Cal_Info" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="IntegrationEvents" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Verification" sheetId="4" r:id="rId6"/>
+    <sheet name="Moorings" sheetId="1" r:id="rId1"/>
+    <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
+    <sheet name="IntegrationEvents" sheetId="3" r:id="rId3"/>
+    <sheet name="Verification" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -19,46 +27,95 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A11">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">missing from equipment list
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>equipment list has ATAPL-58328-00004 (which is a sphere, not seismometer) - assume typo, serial number matches 0011A, new convention, changed to 00011
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A7">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">equipment list had 00003A/B, serial number matches 0009A in bulk load - convention - changed to 00009
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>equipment list had T1077, but that doesn't match others - assumed typo
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A6">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">equipment list had 0004A, bulk load serial number match is 0003A, convention - changed to 00003
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>equipment list had 0009A, but bulk load serial number matches to 0004A, new convention doesn't use A - changed to 00004
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C4">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">equipment list had T1077, but that doesn't match others - assumed typo
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>typo in RSN equipment list - has OPSSPA, should be OBSSPA
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A4">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">equipment list has ATAPL-58328-00004 (which is a sphere, not seismometer) - assume typo, serial number matches 0011A, new convention, changed to 00011
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>equipment list had 0004A, bulk load serial number match is 0003A, convention - changed to 00003
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A5">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">equipment list had 0009A, but bulk load serial number matches to 0004A, new convention doesn't use A - changed to 00004
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>equipment list had 00003A/B, serial number matches 0009A in bulk load - convention - changed to 00009
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B5">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">typo in RSN equipment list - has OPSSPA, should be OBSSPA
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>missing from equipment list
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -317,51 +374,63 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="166" formatCode="#,##0.00000"/>
     <numFmt numFmtId="167" formatCode="m&quot;/&quot;d&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF999999"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -369,7 +438,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -402,6 +471,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -414,6 +484,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -424,213 +495,493 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="Rectangle 8" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.57"/>
-    <col customWidth="1" min="2" max="2" width="31.0"/>
-    <col customWidth="1" min="3" max="3" width="14.71"/>
-    <col customWidth="1" min="4" max="7" width="12.14"/>
-    <col customWidth="1" min="8" max="8" width="16.14"/>
-    <col customWidth="1" min="9" max="9" width="18.14"/>
-    <col customWidth="1" min="10" max="11" width="10.29"/>
-    <col customWidth="1" min="12" max="14" width="14.43"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="14" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.0" customHeight="1">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +1021,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -681,13 +1032,13 @@
         <v>14</v>
       </c>
       <c r="D2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>41888.0</v>
+        <v>41888</v>
       </c>
       <c r="F2" s="6">
-        <v>0.6861111111111111</v>
+        <v>0.68611111111111112</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
@@ -697,22 +1048,22 @@
         <v>16</v>
       </c>
       <c r="J2" s="9">
-        <v>776.0</v>
+        <v>776</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="10"/>
-      <c r="M2" s="11" t="str">
-        <f t="shared" ref="M2:M9" si="1">((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
-        <v>44.56918</v>
-      </c>
-      <c r="N2" s="11" t="str">
-        <f t="shared" ref="N2:N9" si="2">((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+      <c r="M2" s="11">
+        <f t="shared" ref="M2:M9" si="0">((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>44.569180000000003</v>
+      </c>
+      <c r="N2" s="11">
+        <f t="shared" ref="N2:N9" si="1">((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
         <v>-125.14805</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -720,16 +1071,16 @@
         <v>19</v>
       </c>
       <c r="C3" s="8">
-        <v>299465.0</v>
+        <v>299465</v>
       </c>
       <c r="D3" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="13">
-        <v>41493.0</v>
+        <v>41493</v>
       </c>
       <c r="F3" s="14">
-        <v>0.049305555555555554</v>
+        <v>4.9305555555555554E-2</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
@@ -739,22 +1090,22 @@
         <v>21</v>
       </c>
       <c r="J3" s="15">
-        <v>775.0</v>
+        <v>775</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="10"/>
-      <c r="M3" s="11" t="str">
+      <c r="M3" s="11">
+        <f t="shared" si="0"/>
+        <v>44.569159999999997</v>
+      </c>
+      <c r="N3" s="11">
         <f t="shared" si="1"/>
-        <v>44.56916</v>
-      </c>
-      <c r="N3" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>-125.1479</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+        <v>-125.14790000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
@@ -765,13 +1116,13 @@
         <v>25</v>
       </c>
       <c r="D4" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="13">
-        <v>41493.0</v>
+        <v>41493</v>
       </c>
       <c r="F4" s="14">
-        <v>0.049305555555555554</v>
+        <v>4.9305555555555554E-2</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8" t="s">
@@ -781,22 +1132,22 @@
         <v>21</v>
       </c>
       <c r="J4" s="15">
-        <v>775.0</v>
+        <v>775</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="11" t="str">
+      <c r="M4" s="11">
+        <f t="shared" si="0"/>
+        <v>44.569159999999997</v>
+      </c>
+      <c r="N4" s="11">
         <f t="shared" si="1"/>
-        <v>44.56916</v>
-      </c>
-      <c r="N4" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>-125.1479</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+        <v>-125.14790000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
@@ -807,13 +1158,13 @@
         <v>28</v>
       </c>
       <c r="D5" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="13">
-        <v>41883.0</v>
+        <v>41883</v>
       </c>
       <c r="F5" s="14">
-        <v>0.8145833333333333</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
@@ -823,22 +1174,22 @@
         <v>30</v>
       </c>
       <c r="J5" s="15">
-        <v>789.0</v>
+        <v>789</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="11" t="str">
+      <c r="M5" s="11">
+        <f t="shared" si="0"/>
+        <v>44.567390000000003</v>
+      </c>
+      <c r="N5" s="11">
         <f t="shared" si="1"/>
-        <v>44.56739</v>
-      </c>
-      <c r="N5" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>-125.14418</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+        <v>-125.14418000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>31</v>
       </c>
@@ -849,13 +1200,13 @@
         <v>33</v>
       </c>
       <c r="D6" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="13">
-        <v>41883.0</v>
+        <v>41883</v>
       </c>
       <c r="F6" s="14">
-        <v>0.6368055555555555</v>
+        <v>0.63680555555555551</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8" t="s">
@@ -865,22 +1216,22 @@
         <v>35</v>
       </c>
       <c r="J6" s="15">
-        <v>788.0</v>
+        <v>788</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="11" t="str">
+      <c r="M6" s="11">
+        <f t="shared" si="0"/>
+        <v>44.573189999999997</v>
+      </c>
+      <c r="N6" s="11">
         <f t="shared" si="1"/>
-        <v>44.57319</v>
-      </c>
-      <c r="N6" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>-125.14392</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+        <v>-125.14391999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
@@ -891,13 +1242,13 @@
         <v>38</v>
       </c>
       <c r="D7" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="13">
-        <v>41883.0</v>
+        <v>41883</v>
       </c>
       <c r="F7" s="14">
-        <v>0.5020833333333333</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
@@ -907,22 +1258,22 @@
         <v>40</v>
       </c>
       <c r="J7" s="15">
-        <v>818.0</v>
+        <v>818</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="11">
+        <f t="shared" si="0"/>
+        <v>44.573030000000003</v>
+      </c>
+      <c r="N7" s="11">
         <f t="shared" si="1"/>
-        <v>44.57303</v>
-      </c>
-      <c r="N7" s="11" t="str">
-        <f t="shared" si="2"/>
         <v>-125.1525</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -933,10 +1284,10 @@
         <v>43</v>
       </c>
       <c r="D8" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="13">
-        <v>41889.0</v>
+        <v>41889</v>
       </c>
       <c r="F8" s="14">
         <v>0.43194444444444446</v>
@@ -949,22 +1300,22 @@
         <v>45</v>
       </c>
       <c r="J8" s="15">
-        <v>775.0</v>
+        <v>775</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="10"/>
-      <c r="M8" s="11" t="str">
+      <c r="M8" s="11">
+        <f t="shared" si="0"/>
+        <v>44.569270000000003</v>
+      </c>
+      <c r="N8" s="11">
         <f t="shared" si="1"/>
-        <v>44.56927</v>
-      </c>
-      <c r="N8" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>-125.14804</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+        <v>-125.14803999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -972,16 +1323,16 @@
         <v>47</v>
       </c>
       <c r="C9" s="8">
-        <v>10306.0</v>
+        <v>10306</v>
       </c>
       <c r="D9" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="13">
-        <v>41891.0</v>
+        <v>41891</v>
       </c>
       <c r="F9" s="14">
-        <v>0.01875</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8" t="s">
@@ -991,22 +1342,22 @@
         <v>49</v>
       </c>
       <c r="J9" s="15">
-        <v>775.0</v>
+        <v>775</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="11" t="str">
+      <c r="M9" s="11">
+        <f t="shared" si="0"/>
+        <v>44.569110000000002</v>
+      </c>
+      <c r="N9" s="11">
         <f t="shared" si="1"/>
-        <v>44.56911</v>
-      </c>
-      <c r="N9" s="11" t="str">
-        <f t="shared" si="2"/>
         <v>-125.14797</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
@@ -1017,13 +1368,13 @@
         <v>52</v>
       </c>
       <c r="D10" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="13">
-        <v>41888.0</v>
+        <v>41888</v>
       </c>
       <c r="F10" s="14">
-        <v>0.6236111111111111</v>
+        <v>0.62361111111111112</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
@@ -1033,16 +1384,22 @@
         <v>54</v>
       </c>
       <c r="J10" s="15">
-        <v>776.0</v>
+        <v>776</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="M10" s="21">
+        <f t="shared" ref="M10:M11" si="2">((LEFT(H10,(FIND("°",H10,1)-1)))+(MID(H10,(FIND("°",H10,1)+1),(FIND("'",H10,1))-(FIND("°",H10,1)+1))/60))*(IF(RIGHT(H10,1)="N",1,-1))</f>
+        <v>44.56917</v>
+      </c>
+      <c r="N10" s="21">
+        <f t="shared" ref="N10:N11" si="3">((LEFT(I10,(FIND("°",I10,1)-1)))+(MID(I10,(FIND("°",I10,1)+1),(FIND("'",I10,1))-(FIND("°",I10,1)+1))/60))*(IF(RIGHT(I10,1)="E",1,-1))</f>
+        <v>-125.14812999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>55</v>
       </c>
@@ -1051,13 +1408,13 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="13">
-        <v>41888.0</v>
+        <v>41888</v>
       </c>
       <c r="F11" s="14">
-        <v>0.6402777777777777</v>
+        <v>0.64027777777777772</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
@@ -1067,16 +1424,22 @@
         <v>54</v>
       </c>
       <c r="J11" s="15">
-        <v>776.0</v>
+        <v>776</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="M11" s="21">
+        <f t="shared" si="2"/>
+        <v>44.56917</v>
+      </c>
+      <c r="N11" s="21">
+        <f t="shared" si="3"/>
+        <v>-125.14812999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="22"/>
       <c r="C12" s="20"/>
@@ -1092,7 +1455,7 @@
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="22"/>
       <c r="C13" s="20"/>
@@ -1108,7 +1471,7 @@
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="22"/>
       <c r="C14" s="20"/>
@@ -1124,7 +1487,7 @@
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="22"/>
       <c r="C15" s="20"/>
@@ -1140,7 +1503,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="22"/>
       <c r="C16" s="20"/>
@@ -1156,7 +1519,7 @@
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="22"/>
       <c r="C17" s="20"/>
@@ -1172,7 +1535,7 @@
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="22"/>
       <c r="C18" s="20"/>
@@ -1188,7 +1551,7 @@
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="22"/>
       <c r="C19" s="20"/>
@@ -1204,7 +1567,7 @@
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="22"/>
       <c r="C20" s="20"/>
@@ -1220,7 +1583,7 @@
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="22"/>
       <c r="C21" s="20"/>
@@ -1236,7 +1599,7 @@
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="22"/>
       <c r="C22" s="20"/>
@@ -1252,7 +1615,7 @@
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="22"/>
       <c r="C23" s="20"/>
@@ -1269,31 +1632,33 @@
       <c r="N23" s="21"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.43"/>
-    <col customWidth="1" min="2" max="2" width="20.57"/>
-    <col customWidth="1" min="3" max="4" width="13.57"/>
-    <col customWidth="1" min="5" max="5" width="21.14"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="8" width="26.57"/>
-    <col customWidth="1" min="9" max="9" width="14.43"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1">
+    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1322,235 +1687,235 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="C2" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="F2" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"ATAPL-65310-020-0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"ATAPL-65310-020-0004")</f>
         <v>ATAPL-65310-020-0004</v>
       </c>
       <c r="C3" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"SN0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"SN0004")</f>
         <v>SN0004</v>
       </c>
       <c r="D3" s="29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=A3,Moorings!D:D=D3))"),"ATAPL-58693-00004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=A3,Moorings!D:D=D3))"),"ATAPL-58693-00004")</f>
         <v>ATAPL-58693-00004</v>
       </c>
       <c r="F3" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=A3,Moorings!D:D=D3))"),"299465")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=A3,Moorings!D:D=D3))"),"299465")</f>
         <v>299465</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="30"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"ATAPL-65310-020-0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"ATAPL-65310-020-0004")</f>
         <v>ATAPL-65310-020-0004</v>
       </c>
       <c r="C4" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"SN0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"SN0004")</f>
         <v>SN0004</v>
       </c>
       <c r="D4" s="29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=A4,Moorings!D:D=D4))"),"ATAPL-58331-00011")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=A4,Moorings!D:D=D4))"),"ATAPL-58331-00011")</f>
         <v>ATAPL-58331-00011</v>
       </c>
       <c r="F4" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=A4,Moorings!D:D=D4))"),"T6J77")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=A4,Moorings!D:D=D4))"),"T6J77")</f>
         <v>T6J77</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="32"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"ATAPL-65310-020-0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"ATAPL-65310-020-0004")</f>
         <v>ATAPL-65310-020-0004</v>
       </c>
       <c r="C5" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"SN0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"SN0004")</f>
         <v>SN0004</v>
       </c>
       <c r="D5" s="29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=A5,Moorings!D:D=D5))"),"ATAPL-58331-00004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=A5,Moorings!D:D=D5))"),"ATAPL-58331-00004")</f>
         <v>ATAPL-58331-00004</v>
       </c>
       <c r="F5" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=A5,Moorings!D:D=D5))"),"T6J70")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=A5,Moorings!D:D=D5))"),"T6J70")</f>
         <v>T6J70</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="32"/>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"ATAPL-65310-020-0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"ATAPL-65310-020-0004")</f>
         <v>ATAPL-65310-020-0004</v>
       </c>
       <c r="C6" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"SN0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"SN0004")</f>
         <v>SN0004</v>
       </c>
       <c r="D6" s="29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=A6,Moorings!D:D=D6))"),"ATAPL-58331-00003")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=A6,Moorings!D:D=D6))"),"ATAPL-58331-00003")</f>
         <v>ATAPL-58331-00003</v>
       </c>
       <c r="F6" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=A6,Moorings!D:D=D6))"),"T6J69")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=A6,Moorings!D:D=D6))"),"T6J69")</f>
         <v>T6J69</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="32"/>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"ATAPL-65310-020-0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"ATAPL-65310-020-0004")</f>
         <v>ATAPL-65310-020-0004</v>
       </c>
       <c r="C7" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"SN0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"SN0004")</f>
         <v>SN0004</v>
       </c>
       <c r="D7" s="29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=A7,Moorings!D:D=D7))"),"ATAPL-58331-00009")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=A7,Moorings!D:D=D7))"),"ATAPL-58331-00009")</f>
         <v>ATAPL-58331-00009</v>
       </c>
       <c r="F7" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=A7,Moorings!D:D=D7))"),"T6J75")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=A7,Moorings!D:D=D7))"),"T6J75")</f>
         <v>T6J75</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="32"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"ATAPL-65310-020-0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"ATAPL-65310-020-0004")</f>
         <v>ATAPL-65310-020-0004</v>
       </c>
       <c r="C8" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"SN0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"SN0004")</f>
         <v>SN0004</v>
       </c>
       <c r="D8" s="29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=A8,Moorings!D:D=D8))"),"ATAPL-69923-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=A8,Moorings!D:D=D8))"),"ATAPL-69923-00001")</f>
         <v>ATAPL-69923-00001</v>
       </c>
       <c r="F8" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=A8,Moorings!D:D=D8))"),"5471540-0031")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=A8,Moorings!D:D=D8))"),"5471540-0031")</f>
         <v>5471540-0031</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="32"/>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"")</f>
         <v/>
       </c>
       <c r="C9" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"")</f>
         <v/>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=A9,Moorings!D:D=D9))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=A9,Moorings!D:D=D9))"),"")</f>
         <v/>
       </c>
       <c r="F9" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=A9,Moorings!D:D=D9))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=A9,Moorings!D:D=D9))"),"")</f>
         <v/>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"ATAPL-65310-020-0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"ATAPL-65310-020-0004")</f>
         <v>ATAPL-65310-020-0004</v>
       </c>
       <c r="C10" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"SN0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"SN0004")</f>
         <v>SN0004</v>
       </c>
       <c r="D10" s="29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=A10,Moorings!D:D=D10))"),"ATAPL-67979-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=A10,Moorings!D:D=D10))"),"ATAPL-67979-00001")</f>
         <v>ATAPL-67979-00001</v>
       </c>
       <c r="F10" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=A10,Moorings!D:D=D10))"),"10306")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=A10,Moorings!D:D=D10))"),"10306")</f>
         <v>10306</v>
       </c>
       <c r="G10" s="27" t="s">
@@ -1561,27 +1926,27 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"ATAPL-65310-020-0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"ATAPL-65310-020-0004")</f>
         <v>ATAPL-65310-020-0004</v>
       </c>
       <c r="C11" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"SN0004")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"SN0004")</f>
         <v>SN0004</v>
       </c>
       <c r="D11" s="29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=A11,Moorings!D:D=D11))"),"ATAPL-67979-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=A11,Moorings!D:D=D11))"),"ATAPL-67979-00001")</f>
         <v>ATAPL-67979-00001</v>
       </c>
       <c r="F11" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=A11,Moorings!D:D=D11))"),"10306")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=A11,Moorings!D:D=D11))"),"10306")</f>
         <v>10306</v>
       </c>
       <c r="G11" s="27" t="s">
@@ -1592,69 +1957,69 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"")</f>
         <v/>
       </c>
       <c r="C12" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"")</f>
         <v/>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=A12,Moorings!D:D=D12))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=A12,Moorings!D:D=D12))"),"")</f>
         <v/>
       </c>
       <c r="F12" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=A12,Moorings!D:D=D12))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=A12,Moorings!D:D=D12))"),"")</f>
         <v/>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="32"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"")</f>
         <v/>
       </c>
       <c r="C13" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"")</f>
         <v/>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=A13,Moorings!D:D=D13))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=A13,Moorings!D:D=D13))"),"")</f>
         <v/>
       </c>
       <c r="F13" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=A13,Moorings!D:D=D13))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=A13,Moorings!D:D=D13))"),"")</f>
         <v/>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="32"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="C14" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="F14" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="G14" s="27"/>
@@ -1662,30 +2027,31 @@
       <c r="I14" s="31"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.86"/>
-    <col customWidth="1" min="2" max="2" width="17.14"/>
-    <col customWidth="1" min="3" max="3" width="31.57"/>
-    <col customWidth="1" min="4" max="4" width="7.71"/>
-    <col customWidth="1" min="5" max="5" width="21.71"/>
-    <col customWidth="1" min="6" max="6" width="9.86"/>
-    <col customWidth="1" min="7" max="7" width="11.43"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>64</v>
       </c>
@@ -1708,75 +2074,75 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="str">
         <f>Moorings!A2</f>
         <v>ATAPL-65310-020-0004</v>
       </c>
       <c r="B2" s="39" t="str">
-        <f>if(D2="Mooring",Moorings!B2,"")</f>
+        <f>IF(D2="Mooring",Moorings!B2,"")</f>
         <v>RS01SUM1-LJ01B</v>
       </c>
       <c r="C2" s="40" t="str">
-        <f>if(D2="Sensor",Moorings!B2,"")</f>
+        <f>IF(D2="Sensor",Moorings!B2,"")</f>
         <v/>
       </c>
       <c r="D2" s="24" t="str">
-        <f>if(ISBLANK(Moorings!B2),"",if(len(Moorings!B2)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B2),"",IF(LEN(Moorings!B2)&gt;14,"Sensor","Mooring"))</f>
         <v>Mooring</v>
       </c>
       <c r="E2" s="28" t="str">
         <f>Moorings!C2</f>
         <v>SN0004</v>
       </c>
-      <c r="F2" s="41" t="str">
-        <f>if(D2="Mooring",Moorings!E2,"")</f>
-        <v>9/6/2014</v>
+      <c r="F2" s="41">
+        <f>IF(D2="Mooring",Moorings!E2,"")</f>
+        <v>41888</v>
       </c>
       <c r="G2" s="40"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="str">
         <f>Moorings!A3</f>
         <v>ATAPL-58693-00004</v>
       </c>
       <c r="B3" s="39" t="str">
-        <f>if(D3="Mooring",Moorings!B3,"")</f>
+        <f>IF(D3="Mooring",Moorings!B3,"")</f>
         <v/>
       </c>
       <c r="C3" s="39" t="str">
-        <f>if(D3="Sensor",Moorings!B3,"")</f>
+        <f>IF(D3="Sensor",Moorings!B3,"")</f>
         <v>RS01SUM1-LJ01B-05-HYDLFA104</v>
       </c>
       <c r="D3" s="24" t="str">
-        <f>if(ISBLANK(Moorings!B3),"",if(len(Moorings!B3)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B3),"",IF(LEN(Moorings!B3)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E3" s="28" t="str">
+      <c r="E3" s="28">
         <f>Moorings!C3</f>
         <v>299465</v>
       </c>
       <c r="F3" s="41" t="str">
-        <f>if(D3="Mooring",Moorings!E3,"")</f>
+        <f>IF(D3="Mooring",Moorings!E3,"")</f>
         <v/>
       </c>
       <c r="G3" s="40"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="str">
         <f>Moorings!A4</f>
         <v>ATAPL-58331-00011</v>
       </c>
       <c r="B4" s="39" t="str">
-        <f>if(D4="Mooring",Moorings!B4,"")</f>
+        <f>IF(D4="Mooring",Moorings!B4,"")</f>
         <v/>
       </c>
       <c r="C4" s="39" t="str">
-        <f>if(D4="Sensor",Moorings!B4,"")</f>
+        <f>IF(D4="Sensor",Moorings!B4,"")</f>
         <v>RS01SUM1-LJ01B-05-OBSBBA101</v>
       </c>
       <c r="D4" s="24" t="str">
-        <f>if(ISBLANK(Moorings!B4),"",if(len(Moorings!B4)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B4),"",IF(LEN(Moorings!B4)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
       <c r="E4" s="28" t="str">
@@ -1784,26 +2150,26 @@
         <v>T6J77</v>
       </c>
       <c r="F4" s="41" t="str">
-        <f>if(D4="Mooring",Moorings!E4,"")</f>
+        <f>IF(D4="Mooring",Moorings!E4,"")</f>
         <v/>
       </c>
       <c r="G4" s="40"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="str">
         <f>Moorings!A5</f>
         <v>ATAPL-58331-00004</v>
       </c>
       <c r="B5" s="39" t="str">
-        <f>if(D5="Mooring",Moorings!B5,"")</f>
+        <f>IF(D5="Mooring",Moorings!B5,"")</f>
         <v/>
       </c>
       <c r="C5" s="39" t="str">
-        <f>if(D5="Sensor",Moorings!B5,"")</f>
+        <f>IF(D5="Sensor",Moorings!B5,"")</f>
         <v>RS01SUM1-LJ01B-06-OBSSPA103</v>
       </c>
       <c r="D5" s="24" t="str">
-        <f>if(ISBLANK(Moorings!B5),"",if(len(Moorings!B5)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B5),"",IF(LEN(Moorings!B5)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
       <c r="E5" s="28" t="str">
@@ -1811,26 +2177,26 @@
         <v>T6J70</v>
       </c>
       <c r="F5" s="41" t="str">
-        <f>if(D5="Mooring",Moorings!E5,"")</f>
+        <f>IF(D5="Mooring",Moorings!E5,"")</f>
         <v/>
       </c>
       <c r="G5" s="40"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="str">
         <f>Moorings!A6</f>
         <v>ATAPL-58331-00003</v>
       </c>
       <c r="B6" s="39" t="str">
-        <f>if(D6="Mooring",Moorings!B6,"")</f>
+        <f>IF(D6="Mooring",Moorings!B6,"")</f>
         <v/>
       </c>
       <c r="C6" s="39" t="str">
-        <f>if(D6="Sensor",Moorings!B6,"")</f>
+        <f>IF(D6="Sensor",Moorings!B6,"")</f>
         <v>RS01SUM1-LJ01B-07-OBSSPA102</v>
       </c>
       <c r="D6" s="24" t="str">
-        <f>if(ISBLANK(Moorings!B6),"",if(len(Moorings!B6)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B6),"",IF(LEN(Moorings!B6)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
       <c r="E6" s="28" t="str">
@@ -1838,26 +2204,26 @@
         <v>T6J69</v>
       </c>
       <c r="F6" s="41" t="str">
-        <f>if(D6="Mooring",Moorings!E6,"")</f>
+        <f>IF(D6="Mooring",Moorings!E6,"")</f>
         <v/>
       </c>
       <c r="G6" s="40"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="str">
         <f>Moorings!A7</f>
         <v>ATAPL-58331-00009</v>
       </c>
       <c r="B7" s="39" t="str">
-        <f>if(D7="Mooring",Moorings!B7,"")</f>
+        <f>IF(D7="Mooring",Moorings!B7,"")</f>
         <v/>
       </c>
       <c r="C7" s="39" t="str">
-        <f>if(D7="Sensor",Moorings!B7,"")</f>
+        <f>IF(D7="Sensor",Moorings!B7,"")</f>
         <v>RS01SUM1-LJ01B-08-OBSSPA101</v>
       </c>
       <c r="D7" s="24" t="str">
-        <f>if(ISBLANK(Moorings!B7),"",if(len(Moorings!B7)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B7),"",IF(LEN(Moorings!B7)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
       <c r="E7" s="28" t="str">
@@ -1865,26 +2231,26 @@
         <v>T6J75</v>
       </c>
       <c r="F7" s="41" t="str">
-        <f>if(D7="Mooring",Moorings!E7,"")</f>
+        <f>IF(D7="Mooring",Moorings!E7,"")</f>
         <v/>
       </c>
       <c r="G7" s="40"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="str">
         <f>Moorings!A8</f>
         <v>ATAPL-69923-00001</v>
       </c>
       <c r="B8" s="39" t="str">
-        <f>if(D8="Mooring",Moorings!B8,"")</f>
+        <f>IF(D8="Mooring",Moorings!B8,"")</f>
         <v/>
       </c>
       <c r="C8" s="39" t="str">
-        <f>if(D8="Sensor",Moorings!B8,"")</f>
+        <f>IF(D8="Sensor",Moorings!B8,"")</f>
         <v>RS01SUM1-LJ01B-09-PRESTB102</v>
       </c>
       <c r="D8" s="24" t="str">
-        <f>if(ISBLANK(Moorings!B8),"",if(len(Moorings!B8)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B8),"",IF(LEN(Moorings!B8)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
       <c r="E8" s="28" t="str">
@@ -1892,173 +2258,174 @@
         <v>5471540-0031</v>
       </c>
       <c r="F8" s="41" t="str">
-        <f>if(D8="Mooring",Moorings!E8,"")</f>
+        <f>IF(D8="Mooring",Moorings!E8,"")</f>
         <v/>
       </c>
       <c r="G8" s="40"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="str">
         <f>Moorings!A9</f>
         <v>ATAPL-67979-00001</v>
       </c>
       <c r="B9" s="39" t="str">
-        <f>if(D9="Mooring",Moorings!B9,"")</f>
+        <f>IF(D9="Mooring",Moorings!B9,"")</f>
         <v/>
       </c>
       <c r="C9" s="39" t="str">
-        <f>if(D9="Sensor",Moorings!B9,"")</f>
+        <f>IF(D9="Sensor",Moorings!B9,"")</f>
         <v>RS01SUM1-LJ01B-12-VEL3DB104</v>
       </c>
       <c r="D9" s="24" t="str">
-        <f>if(ISBLANK(Moorings!B9),"",if(len(Moorings!B9)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B9),"",IF(LEN(Moorings!B9)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="28">
         <f>Moorings!C9</f>
         <v>10306</v>
       </c>
       <c r="F9" s="41" t="str">
-        <f>if(D9="Mooring",Moorings!E9,"")</f>
+        <f>IF(D9="Mooring",Moorings!E9,"")</f>
         <v/>
       </c>
       <c r="G9" s="40"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="str">
         <f>Moorings!A10</f>
         <v>ATAPL-65291-020-0044</v>
       </c>
       <c r="B10" s="39" t="str">
-        <f>if(D10="Mooring",Moorings!B10,"")</f>
+        <f>IF(D10="Mooring",Moorings!B10,"")</f>
         <v>RS01SUM1-LV01B</v>
       </c>
       <c r="C10" s="40" t="str">
-        <f>if(D10="Sensor",Moorings!B10,"")</f>
+        <f>IF(D10="Sensor",Moorings!B10,"")</f>
         <v/>
       </c>
       <c r="D10" s="24" t="str">
-        <f>if(ISBLANK(Moorings!B10),"",if(len(Moorings!B10)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B10),"",IF(LEN(Moorings!B10)&gt;14,"Sensor","Mooring"))</f>
         <v>Mooring</v>
       </c>
       <c r="E10" s="28" t="str">
         <f>Moorings!C10</f>
         <v>SN0044</v>
       </c>
-      <c r="F10" s="41" t="str">
-        <f>if(D10="Mooring",Moorings!E10,"")</f>
-        <v>9/6/2014</v>
+      <c r="F10" s="41">
+        <f>IF(D10="Mooring",Moorings!E10,"")</f>
+        <v>41888</v>
       </c>
       <c r="G10" s="40"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="str">
         <f>Moorings!A11</f>
         <v>N00298</v>
       </c>
       <c r="B11" s="39" t="str">
-        <f>if(D11="Mooring",Moorings!B11,"")</f>
+        <f>IF(D11="Mooring",Moorings!B11,"")</f>
         <v>RS01SUM1-PN01B</v>
       </c>
       <c r="C11" s="40" t="str">
-        <f>if(D11="Sensor",Moorings!B11,"")</f>
+        <f>IF(D11="Sensor",Moorings!B11,"")</f>
         <v/>
       </c>
       <c r="D11" s="24" t="str">
-        <f>if(ISBLANK(Moorings!B11),"",if(len(Moorings!B11)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B11),"",IF(LEN(Moorings!B11)&gt;14,"Sensor","Mooring"))</f>
         <v>Mooring</v>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="28">
         <f>Moorings!C11</f>
-        <v/>
-      </c>
-      <c r="F11" s="41" t="str">
-        <f>if(D11="Mooring",Moorings!E11,"")</f>
-        <v>9/6/2014</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="41">
+        <f>IF(D11="Mooring",Moorings!E11,"")</f>
+        <v>41888</v>
       </c>
       <c r="G11" s="40"/>
     </row>
-    <row r="12">
-      <c r="A12" s="39" t="str">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
         <f>Moorings!A12</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B12" s="39" t="str">
-        <f>if(D12="Mooring",Moorings!B12,"")</f>
+        <f>IF(D12="Mooring",Moorings!B12,"")</f>
         <v/>
       </c>
       <c r="C12" s="40" t="str">
-        <f>if(D12="Sensor",Moorings!B12,"")</f>
+        <f>IF(D12="Sensor",Moorings!B12,"")</f>
         <v/>
       </c>
       <c r="D12" s="24" t="str">
-        <f>if(ISBLANK(Moorings!B12),"",if(len(Moorings!B12)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E12" s="28" t="str">
+        <f>IF(ISBLANK(Moorings!B12),"",IF(LEN(Moorings!B12)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E12" s="28">
         <f>Moorings!C12</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F12" s="41" t="str">
-        <f>if(D12="Mooring",Moorings!E12,"")</f>
+        <f>IF(D12="Mooring",Moorings!E12,"")</f>
         <v/>
       </c>
       <c r="G12" s="40"/>
     </row>
-    <row r="13">
-      <c r="A13" s="39" t="str">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
         <f>Moorings!A13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B13" s="39" t="str">
-        <f>if(D13="Mooring",Moorings!B13,"")</f>
+        <f>IF(D13="Mooring",Moorings!B13,"")</f>
         <v/>
       </c>
       <c r="C13" s="40" t="str">
-        <f>if(D13="Sensor",Moorings!B13,"")</f>
+        <f>IF(D13="Sensor",Moorings!B13,"")</f>
         <v/>
       </c>
       <c r="D13" s="24" t="str">
-        <f>if(ISBLANK(Moorings!B13),"",if(len(Moorings!B13)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E13" s="28" t="str">
+        <f>IF(ISBLANK(Moorings!B13),"",IF(LEN(Moorings!B13)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E13" s="28">
         <f>Moorings!C13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F13" s="41" t="str">
-        <f>if(D13="Mooring",Moorings!E13,"")</f>
+        <f>IF(D13="Mooring",Moorings!E13,"")</f>
         <v/>
       </c>
       <c r="G13" s="40"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.43"/>
-    <col customWidth="1" min="2" max="2" width="11.57"/>
-    <col customWidth="1" min="3" max="3" width="18.14"/>
-    <col customWidth="1" min="4" max="4" width="11.43"/>
-    <col customWidth="1" min="5" max="5" width="10.29"/>
-    <col customWidth="1" min="6" max="6" width="7.0"/>
-    <col customWidth="1" min="7" max="7" width="5.71"/>
-    <col customWidth="1" min="8" max="8" width="16.0"/>
-    <col customWidth="1" min="9" max="9" width="19.43"/>
-    <col customWidth="1" min="10" max="10" width="11.0"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("sort(unique(Moorings!B:B))"),"Ref Des")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("sort(unique(Moorings!B:B))"),"Ref Des")</f>
         <v>Ref Des</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -2087,7 +2454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2107,7 +2474,7 @@
       <c r="I2" s="49"/>
       <c r="J2" s="48"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2129,7 +2496,7 @@
       <c r="I3" s="50"/>
       <c r="J3" s="46"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2151,7 +2518,7 @@
       <c r="I4" s="50"/>
       <c r="J4" s="48"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2173,7 +2540,7 @@
       <c r="I5" s="49"/>
       <c r="J5" s="48"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2195,7 +2562,7 @@
       <c r="I6" s="50"/>
       <c r="J6" s="48"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2217,7 +2584,7 @@
       <c r="I7" s="50"/>
       <c r="J7" s="48"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2239,7 +2606,7 @@
       <c r="I8" s="49"/>
       <c r="J8" s="48"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2263,7 +2630,7 @@
       <c r="I9" s="50"/>
       <c r="J9" s="48"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2285,7 +2652,7 @@
       <c r="I10" s="50"/>
       <c r="J10" s="48"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2307,7 +2674,7 @@
       <c r="I11" s="49"/>
       <c r="J11" s="48"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="46"/>
       <c r="C12" s="47"/>
       <c r="D12" s="46"/>
@@ -2320,7 +2687,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="46"/>
       <c r="C13" s="52"/>
       <c r="D13" s="46"/>
@@ -2334,7 +2701,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="46"/>
       <c r="C14" s="47"/>
       <c r="D14" s="46"/>
@@ -2348,7 +2715,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="46"/>
       <c r="C15" s="47"/>
       <c r="D15" s="46"/>
@@ -2362,7 +2729,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="46"/>
       <c r="C16" s="47"/>
       <c r="D16" s="46"/>
@@ -2376,7 +2743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
       <c r="D17" s="46"/>
@@ -2390,7 +2757,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="46"/>
       <c r="C18" s="47"/>
       <c r="D18" s="46"/>
@@ -2404,7 +2771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="46"/>
       <c r="C19" s="47"/>
       <c r="D19" s="46"/>
@@ -2418,22 +2785,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="55" t="str">
-        <f>concatenate(countif(B2:B19,"yes"),"/",counta(B2:B19))</f>
+        <f>CONCATENATE(COUNTIF(B2:B19,"yes"),"/",COUNTA(B2:B19))</f>
         <v>10/10</v>
       </c>
       <c r="C20" s="55" t="str">
-        <f>concatenate("'",countif(C2:C19,"yes"),"/",counta(C2:C19))</f>
+        <f>CONCATENATE("'",COUNTIF(C2:C19,"yes"),"/",COUNTA(C2:C19))</f>
         <v>'8/10</v>
       </c>
       <c r="D20" s="56" t="str">
-        <f t="shared" ref="D20:E20" si="1">concatenate("'",countif(D2:D19,"1/*")+countif(D2:D19,"2/*")*2,"/",countif(D2:D19,"*/1")+countif(D2:D19,"*/2")*2)</f>
+        <f t="shared" ref="D20:E20" si="0">CONCATENATE("'",COUNTIF(D2:D19,"1/*")+COUNTIF(D2:D19,"2/*")*2,"/",COUNTIF(D2:D19,"*/1")+COUNTIF(D2:D19,"*/2")*2)</f>
         <v>'10/10</v>
       </c>
       <c r="E20" s="56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1/1</v>
       </c>
       <c r="F20" s="48"/>
@@ -2445,7 +2812,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="48"/>
       <c r="C21" s="47"/>
       <c r="D21" s="46"/>
@@ -2459,7 +2826,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="48"/>
       <c r="C22" s="52"/>
       <c r="D22" s="48"/>
@@ -2473,7 +2840,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="48"/>
       <c r="C23" s="52"/>
       <c r="D23" s="48"/>
@@ -2487,7 +2854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="48"/>
       <c r="C24" s="52"/>
       <c r="D24" s="48"/>
@@ -2501,7 +2868,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="48"/>
       <c r="C25" s="52"/>
       <c r="D25" s="48"/>
@@ -2516,6 +2883,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>